--- a/source/_drafts/2016/0821Health/Health.xlsx
+++ b/source/_drafts/2016/0821Health/Health.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palance/百度云同步盘/homedir/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palance/Documents/SubVersions/blog/blog/source/_drafts/2016/0821Health/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28600" windowHeight="20360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>8′19″</t>
   </si>
@@ -244,6 +244,26 @@
   <si>
     <t>6′14″</t>
   </si>
+  <si>
+    <t>32:37</t>
+  </si>
+  <si>
+    <t>6′29″</t>
+  </si>
+  <si>
+    <t>32:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6′25″</t>
+  </si>
+  <si>
+    <t>6′26″</t>
+  </si>
 </sst>
 </file>
 
@@ -1840,13 +1860,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.416666666666666</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.433333333333333</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>#N/A</c:v>
+                  <c:v>6.483333333333333</c:v>
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>6.233333333333333</c:v>
@@ -1983,8 +2003,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2061488832"/>
-        <c:axId val="-2061493600"/>
+        <c:axId val="950269920"/>
+        <c:axId val="950274624"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2819,6 +2839,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="263"/>
+                <c:pt idx="220">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>5.03</c:v>
+                </c:pt>
                 <c:pt idx="223">
                   <c:v>5.03</c:v>
                 </c:pt>
@@ -2927,11 +2956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2057762608"/>
-        <c:axId val="-2057767776"/>
+        <c:axId val="951166512"/>
+        <c:axId val="951172144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2061488832"/>
+        <c:axId val="950269920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42675.0"/>
@@ -2975,7 +3004,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061493600"/>
+        <c:crossAx val="950274624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2984,7 +3013,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2061493600"/>
+        <c:axId val="950274624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="6.0"/>
@@ -3057,6 +3086,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3110,12 +3140,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061488832"/>
+        <c:crossAx val="950269920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2057767776"/>
+        <c:axId val="951172144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.5"/>
@@ -3152,6 +3182,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3206,13 +3237,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2057762608"/>
+        <c:crossAx val="951166512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-2057762608"/>
+        <c:axId val="951166512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3222,7 +3253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057767776"/>
+        <c:crossAx val="951172144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4784,13 +4815,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>#N/A</c:v>
+                  <c:v>32.41666666666666</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>#N/A</c:v>
+                  <c:v>32.48333333333333</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>#N/A</c:v>
+                  <c:v>32.61666666666667</c:v>
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>31.4</c:v>
@@ -4926,11 +4957,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2062643920"/>
-        <c:axId val="-2061486960"/>
+        <c:axId val="950340608"/>
+        <c:axId val="950345232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2062643920"/>
+        <c:axId val="950340608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42675.0"/>
@@ -4972,7 +5003,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061486960"/>
+        <c:crossAx val="950345232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4981,7 +5012,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2061486960"/>
+        <c:axId val="950345232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20.0"/>
@@ -5083,7 +5114,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2062643920"/>
+        <c:crossAx val="950340608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6662,13 +6693,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>#N/A</c:v>
+                  <c:v>156.6</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>#N/A</c:v>
+                  <c:v>151.55</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>#N/A</c:v>
+                  <c:v>146.51</c:v>
                 </c:pt>
                 <c:pt idx="223">
                   <c:v>141.48</c:v>
@@ -6802,11 +6833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2061420720"/>
-        <c:axId val="-2061417344"/>
+        <c:axId val="950406240"/>
+        <c:axId val="950410944"/>
       </c:areaChart>
       <c:dateAx>
-        <c:axId val="-2061420720"/>
+        <c:axId val="950406240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42675.0"/>
@@ -6850,7 +6881,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061417344"/>
+        <c:crossAx val="950410944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6859,10 +6890,9 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2061417344"/>
+        <c:axId val="950410944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="150.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6911,6 +6941,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6965,7 +6996,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2061420720"/>
+        <c:crossAx val="950406240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
@@ -9051,10 +9082,10 @@
   <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B213" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E225" sqref="E225"/>
+      <selection pane="bottomRight" activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13058,54 +13089,87 @@
       <c r="A222" s="1">
         <v>42645</v>
       </c>
-      <c r="B222" s="2"/>
-      <c r="F222" s="3" t="e">
+      <c r="B222" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C222">
+        <v>5.05</v>
+      </c>
+      <c r="D222">
+        <v>321</v>
+      </c>
+      <c r="E222" t="s">
+        <v>69</v>
+      </c>
+      <c r="F222" s="3">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G222" s="4" t="e">
+        <v>32.416666666666664</v>
+      </c>
+      <c r="G222" s="4">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H222" t="e">
+        <v>6.416666666666667</v>
+      </c>
+      <c r="H222">
         <f>IF(B222="", #N/A, SUM(C222:C$264))</f>
-        <v>#N/A</v>
+        <v>156.6</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>42644</v>
       </c>
-      <c r="B223" s="2"/>
-      <c r="F223" s="3" t="e">
+      <c r="B223" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C223">
+        <v>5.04</v>
+      </c>
+      <c r="D223">
+        <v>320</v>
+      </c>
+      <c r="E223" t="s">
+        <v>70</v>
+      </c>
+      <c r="F223" s="3">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G223" s="4" t="e">
+        <v>32.483333333333334</v>
+      </c>
+      <c r="G223" s="4">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H223" t="e">
+        <v>6.4333333333333336</v>
+      </c>
+      <c r="H223">
         <f>IF(B223="", #N/A, SUM(C223:C$264))</f>
-        <v>#N/A</v>
+        <v>151.54999999999998</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>42643</v>
       </c>
-      <c r="B224" s="2"/>
-      <c r="F224" s="3" t="e">
+      <c r="B224" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C224">
+        <v>5.03</v>
+      </c>
+      <c r="D224">
+        <v>317</v>
+      </c>
+      <c r="E224" t="s">
+        <v>66</v>
+      </c>
+      <c r="F224" s="3">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G224" s="4" t="e">
+        <v>32.616666666666667</v>
+      </c>
+      <c r="G224" s="4">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H224" t="e">
+        <v>6.4833333333333334</v>
+      </c>
+      <c r="H224">
         <f>IF(B224="", #N/A, SUM(C224:C$264))</f>
-        <v>#N/A</v>
+        <v>146.51</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
